--- a/LabManagement_v3/app/Uploads/data.xlsx
+++ b/LabManagement_v3/app/Uploads/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="6990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="689">
   <si>
     <t>Name</t>
   </si>
@@ -719,9 +719,6 @@
     <t>10.109.104.63-67</t>
   </si>
   <si>
-    <t>10.109.104.82-100</t>
-  </si>
-  <si>
     <r>
       <t>2620:0:170:7565:</t>
     </r>
@@ -786,83 +783,83 @@
   </si>
   <si>
     <t>Durham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ncesx9083229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Durham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ncesx9083233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.109.83.233</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Password123!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Durham</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ncesx9083231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.109.83.231</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>root</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Password123!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ncesx9083238</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ESD-HOST198134 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>10.245.198.134</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Administrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Private ESXi</t>
@@ -1094,31 +1091,31 @@
   </si>
   <si>
     <t>SanBlaze Type</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>SanBlaze IP</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>SanBlaze Port</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>User Name</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>vlun</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Sanblaze</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Model</t>
@@ -1580,15 +1577,15 @@
   </si>
   <si>
     <t>ESX/vCenter Version</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Additional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Lab</t>
@@ -1598,7 +1595,7 @@
   </si>
   <si>
     <t>NA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Private</t>
@@ -3135,6 +3132,38 @@
   <si>
     <t>10.109.110.92</t>
   </si>
+  <si>
+    <t>VX-D1208</t>
+  </si>
+  <si>
+    <r>
+      <t>2620:0:170:7565:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0:bad:beef:9a-10f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>2620:0:170:7565::/64 - prefix: /64- gw:2620:0:170:7565::1- vlan=405</t>
+  </si>
 </sst>
 </file>
 
@@ -3143,12 +3172,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3689,96 +3726,96 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3786,222 +3823,222 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="22" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="22" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="18" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="19" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="26" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="27" fillId="17" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="20" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="22" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4013,14 +4050,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -4377,7 +4414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -4398,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="125" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1" s="125" t="s">
         <v>1</v>
@@ -4424,7 +4461,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="125" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="125" t="s">
         <v>7</v>
@@ -4436,13 +4473,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G2" s="125" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -4450,7 +4487,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="125" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="125" t="s">
         <v>13</v>
@@ -4462,13 +4499,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G3" s="125" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="125" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4476,7 +4513,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" s="125" t="s">
         <v>98</v>
@@ -4488,7 +4525,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="125" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G4" s="125" t="s">
         <v>11</v>
@@ -4499,25 +4536,25 @@
     </row>
     <row r="5" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="126" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="126" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="D5" s="126" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="E5" s="126" t="s">
         <v>309</v>
-      </c>
-      <c r="E5" s="126" t="s">
-        <v>310</v>
       </c>
       <c r="F5" s="126" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="126" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H5" s="126" t="s">
         <v>41</v>
@@ -4528,7 +4565,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="126" t="s">
         <v>19</v>
@@ -4554,7 +4591,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="125" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C7" s="125" t="s">
         <v>25</v>
@@ -4577,19 +4614,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="125" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="125" t="s">
         <v>312</v>
       </c>
-      <c r="B8" s="125" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="125" t="s">
+      <c r="D8" s="125" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="E8" s="125" t="s">
         <v>314</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>315</v>
       </c>
       <c r="F8" s="125" t="s">
         <v>10</v>
@@ -4606,7 +4643,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9" s="126" t="s">
         <v>29</v>
@@ -4621,7 +4658,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H9" s="126" t="s">
         <v>41</v>
@@ -4629,25 +4666,25 @@
     </row>
     <row r="10" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="126" t="s">
+        <v>315</v>
+      </c>
+      <c r="C10" s="126" t="s">
         <v>318</v>
       </c>
-      <c r="B10" s="126" t="s">
-        <v>316</v>
-      </c>
-      <c r="C10" s="126" t="s">
+      <c r="D10" s="126" t="s">
         <v>319</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="E10" s="126" t="s">
         <v>320</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>321</v>
       </c>
       <c r="F10" s="126" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H10" s="126" t="s">
         <v>41</v>
@@ -4655,25 +4692,25 @@
     </row>
     <row r="11" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="126" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="C11" s="126" t="s">
         <v>323</v>
       </c>
-      <c r="C11" s="126" t="s">
+      <c r="D11" s="126" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="E11" s="126" t="s">
         <v>325</v>
-      </c>
-      <c r="E11" s="126" t="s">
-        <v>326</v>
       </c>
       <c r="F11" s="126" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H11" s="126" t="s">
         <v>41</v>
@@ -4681,25 +4718,25 @@
     </row>
     <row r="12" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C12" s="126" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="126" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="126" t="s">
+      <c r="D12" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="E12" s="126" t="s">
         <v>330</v>
       </c>
-      <c r="E12" s="126" t="s">
-        <v>331</v>
-      </c>
       <c r="F12" s="126" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G12" s="126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H12" s="126" t="s">
         <v>41</v>
@@ -4710,7 +4747,7 @@
         <v>32</v>
       </c>
       <c r="B13" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C13" s="125" t="s">
         <v>33</v>
@@ -4725,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H13" s="125" t="s">
         <v>41</v>
@@ -4736,7 +4773,7 @@
         <v>36</v>
       </c>
       <c r="B14" s="126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="126" t="s">
         <v>37</v>
@@ -4751,7 +4788,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H14" s="126" t="s">
         <v>41</v>
@@ -4762,7 +4799,7 @@
         <v>42</v>
       </c>
       <c r="B15" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C15" s="125" t="s">
         <v>43</v>
@@ -4788,7 +4825,7 @@
         <v>47</v>
       </c>
       <c r="B16" s="126" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C16" s="126" t="s">
         <v>48</v>
@@ -4814,7 +4851,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="125" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C17" s="125" t="s">
         <v>53</v>
@@ -4840,7 +4877,7 @@
         <v>57</v>
       </c>
       <c r="B18" s="126" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="126" t="s">
         <v>58</v>
@@ -4866,7 +4903,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C19" s="125" t="s">
         <v>62</v>
@@ -4889,19 +4926,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="125" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" s="125" t="s">
         <v>333</v>
       </c>
-      <c r="B20" s="125" t="s">
-        <v>316</v>
-      </c>
-      <c r="C20" s="125" t="s">
+      <c r="D20" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="E20" s="125" t="s">
         <v>335</v>
-      </c>
-      <c r="E20" s="125" t="s">
-        <v>336</v>
       </c>
       <c r="F20" s="125" t="s">
         <v>10</v>
@@ -4915,19 +4952,19 @@
     </row>
     <row r="21" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="126" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="126" t="s">
         <v>337</v>
       </c>
-      <c r="B21" s="126" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="126" t="s">
+      <c r="D21" s="126" t="s">
         <v>338</v>
       </c>
-      <c r="D21" s="126" t="s">
+      <c r="E21" s="126" t="s">
         <v>339</v>
-      </c>
-      <c r="E21" s="126" t="s">
-        <v>340</v>
       </c>
       <c r="F21" s="126" t="s">
         <v>10</v>
@@ -4944,7 +4981,7 @@
         <v>65</v>
       </c>
       <c r="B22" s="126" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C22" s="126" t="s">
         <v>66</v>
@@ -4967,25 +5004,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="125" t="s">
+        <v>340</v>
+      </c>
+      <c r="B23" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C23" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="B23" s="125" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23" s="125" t="s">
+      <c r="D23" s="125" t="s">
         <v>342</v>
       </c>
-      <c r="D23" s="125" t="s">
+      <c r="E23" s="125" t="s">
         <v>343</v>
-      </c>
-      <c r="E23" s="125" t="s">
-        <v>344</v>
       </c>
       <c r="F23" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H23" s="125" t="s">
         <v>41</v>
@@ -4993,25 +5030,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="125" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="125" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="125" t="s">
         <v>345</v>
       </c>
-      <c r="B24" s="125" t="s">
-        <v>316</v>
-      </c>
-      <c r="C24" s="125" t="s">
+      <c r="D24" s="125" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="E24" s="125" t="s">
         <v>347</v>
-      </c>
-      <c r="E24" s="125" t="s">
-        <v>348</v>
       </c>
       <c r="F24" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H24" s="125" t="s">
         <v>41</v>
@@ -5019,25 +5056,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="125" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="C25" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="B25" s="125" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="125" t="s">
+      <c r="D25" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="D25" s="125" t="s">
+      <c r="E25" s="125" t="s">
         <v>351</v>
-      </c>
-      <c r="E25" s="125" t="s">
-        <v>352</v>
       </c>
       <c r="F25" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H25" s="125" t="s">
         <v>41</v>
@@ -5045,25 +5082,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="B26" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="C26" s="125" t="s">
         <v>353</v>
       </c>
-      <c r="B26" s="125" t="s">
-        <v>323</v>
-      </c>
-      <c r="C26" s="125" t="s">
+      <c r="D26" s="125" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="E26" s="125" t="s">
         <v>355</v>
-      </c>
-      <c r="E26" s="125" t="s">
-        <v>356</v>
       </c>
       <c r="F26" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="125" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H26" s="125" t="s">
         <v>41</v>
@@ -5071,25 +5108,25 @@
     </row>
     <row r="27" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="126" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="B27" s="126" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="126" t="s">
+      <c r="D27" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="D27" s="126" t="s">
+      <c r="E27" s="126" t="s">
         <v>359</v>
-      </c>
-      <c r="E27" s="126" t="s">
-        <v>360</v>
       </c>
       <c r="F27" s="126" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H27" s="126" t="s">
         <v>41</v>
@@ -5097,25 +5134,25 @@
     </row>
     <row r="28" spans="1:8" s="126" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="126" t="s">
+        <v>360</v>
+      </c>
+      <c r="B28" s="126" t="s">
+        <v>322</v>
+      </c>
+      <c r="C28" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="B28" s="126" t="s">
-        <v>323</v>
-      </c>
-      <c r="C28" s="126" t="s">
+      <c r="D28" s="126" t="s">
         <v>362</v>
       </c>
-      <c r="D28" s="126" t="s">
+      <c r="E28" s="126" t="s">
         <v>363</v>
-      </c>
-      <c r="E28" s="126" t="s">
-        <v>364</v>
       </c>
       <c r="F28" s="126" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H28" s="126" t="s">
         <v>41</v>
@@ -5123,25 +5160,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="125" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="125" t="s">
+        <v>331</v>
+      </c>
+      <c r="C29" s="125" t="s">
         <v>365</v>
       </c>
-      <c r="B29" s="125" t="s">
-        <v>332</v>
-      </c>
-      <c r="C29" s="125" t="s">
+      <c r="D29" s="125" t="s">
         <v>366</v>
       </c>
-      <c r="D29" s="125" t="s">
+      <c r="E29" s="125" t="s">
         <v>367</v>
-      </c>
-      <c r="E29" s="125" t="s">
-        <v>368</v>
       </c>
       <c r="F29" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H29" s="125" t="s">
         <v>41</v>
@@ -5152,7 +5189,7 @@
         <v>71</v>
       </c>
       <c r="B30" s="125" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C30" s="125" t="s">
         <v>72</v>
@@ -5178,7 +5215,7 @@
         <v>75</v>
       </c>
       <c r="B31" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C31" s="125" t="s">
         <v>76</v>
@@ -5204,7 +5241,7 @@
         <v>79</v>
       </c>
       <c r="B32" s="125" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C32" s="125" t="s">
         <v>80</v>
@@ -5227,19 +5264,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="125" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="B33" s="125" t="s">
+      <c r="C33" s="125" t="s">
         <v>370</v>
       </c>
-      <c r="C33" s="125" t="s">
+      <c r="D33" s="125" t="s">
         <v>371</v>
       </c>
-      <c r="D33" s="125" t="s">
+      <c r="E33" s="125" t="s">
         <v>372</v>
-      </c>
-      <c r="E33" s="125" t="s">
-        <v>373</v>
       </c>
       <c r="F33" s="125" t="s">
         <v>87</v>
@@ -5256,7 +5293,7 @@
         <v>83</v>
       </c>
       <c r="B34" s="125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C34" s="125" t="s">
         <v>84</v>
@@ -5279,19 +5316,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="125" t="s">
+        <v>679</v>
+      </c>
+      <c r="B35" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C35" s="125" t="s">
         <v>680</v>
       </c>
-      <c r="B35" s="125" t="s">
-        <v>370</v>
-      </c>
-      <c r="C35" s="125" t="s">
+      <c r="D35" s="125" t="s">
         <v>681</v>
       </c>
-      <c r="D35" s="125" t="s">
+      <c r="E35" s="125" t="s">
         <v>682</v>
-      </c>
-      <c r="E35" s="125" t="s">
-        <v>683</v>
       </c>
       <c r="F35" s="125" t="s">
         <v>87</v>
@@ -5308,7 +5345,7 @@
         <v>88</v>
       </c>
       <c r="B36" s="125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C36" s="125" t="s">
         <v>89</v>
@@ -5334,7 +5371,7 @@
         <v>92</v>
       </c>
       <c r="B37" s="125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C37" s="125" t="s">
         <v>93</v>
@@ -5357,16 +5394,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="125" t="s">
+        <v>683</v>
+      </c>
+      <c r="B38" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C38" s="125" t="s">
         <v>684</v>
       </c>
-      <c r="B38" s="125" t="s">
-        <v>370</v>
-      </c>
-      <c r="C38" s="125" t="s">
+      <c r="D38" s="125" t="s">
         <v>685</v>
-      </c>
-      <c r="D38" s="125" t="s">
-        <v>686</v>
       </c>
       <c r="F38" s="125" t="s">
         <v>87</v>
@@ -5380,7 +5417,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:A32"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="systemDetails::storagesystem=APM00153018781" tooltip="JF-D1012" display="https://hubv1.corp.emc.com/services/equipment_management - systemDetails::storagesystem=APM00153018781"/>
   </hyperlinks>
@@ -5410,98 +5447,98 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="46" t="s">
+      <c r="F1" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="G1" s="46" t="s">
         <v>461</v>
-      </c>
-      <c r="G1" s="46" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="62" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>467</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="F2" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="G2" s="62" t="s">
         <v>469</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A3" s="61" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B3" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>471</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="E3" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="F3" s="64" t="s">
         <v>474</v>
       </c>
-      <c r="F3" s="64" t="s">
+      <c r="G3" s="62" t="s">
         <v>475</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" s="61" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B4" s="62" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="D4" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="E4" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="F4" s="63" t="s">
         <v>480</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="G4" s="62" t="s">
-        <v>482</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F4" r:id="rId2"/>
@@ -5526,278 +5563,278 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1" s="68" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>486</v>
-      </c>
       <c r="C1" s="68" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="70" t="s">
         <v>487</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="C2" s="70" t="s">
         <v>488</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.2">
       <c r="A3" s="71" t="s">
+        <v>489</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="72" t="s">
-        <v>491</v>
-      </c>
       <c r="C3" s="72" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73" t="s">
+        <v>491</v>
+      </c>
+      <c r="B4" s="74" t="s">
         <v>492</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="C4" s="74" t="s">
         <v>493</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="75" t="s">
+        <v>494</v>
+      </c>
+      <c r="B5" s="76" t="s">
         <v>495</v>
       </c>
-      <c r="B5" s="76" t="s">
-        <v>496</v>
-      </c>
       <c r="C5" s="76" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="75" t="s">
+        <v>496</v>
+      </c>
+      <c r="B6" s="76" t="s">
         <v>497</v>
       </c>
-      <c r="B6" s="76" t="s">
-        <v>498</v>
-      </c>
       <c r="C6" s="76" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="77" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>499</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="75" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="78" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" s="78" t="s">
         <v>501</v>
-      </c>
-      <c r="C8" s="78" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="75" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="76" t="s">
         <v>503</v>
       </c>
-      <c r="B9" s="76" t="s">
-        <v>504</v>
-      </c>
       <c r="C9" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="75" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="76" t="s">
         <v>506</v>
       </c>
-      <c r="B11" s="76" t="s">
-        <v>507</v>
-      </c>
       <c r="C11" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="75" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="76" t="s">
         <v>508</v>
       </c>
-      <c r="B12" s="76" t="s">
-        <v>509</v>
-      </c>
       <c r="C12" s="76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
+        <v>509</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>510</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>511</v>
-      </c>
       <c r="C13" s="78" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="79" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A17" s="75" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" s="80" t="s">
         <v>515</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="C17" s="80" t="s">
         <v>516</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="80" t="s">
         <v>518</v>
       </c>
-      <c r="B18" s="80" t="s">
-        <v>519</v>
-      </c>
       <c r="C18" s="80" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="75" t="s">
+        <v>519</v>
+      </c>
+      <c r="B19" s="81" t="s">
         <v>520</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>521</v>
-      </c>
       <c r="C19" s="81" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="255" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="75" t="s">
+        <v>521</v>
+      </c>
+      <c r="B20" s="82" t="s">
         <v>522</v>
       </c>
-      <c r="B20" s="82" t="s">
-        <v>523</v>
-      </c>
       <c r="C20" s="82" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="75" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B21" s="81"/>
       <c r="C21" s="81"/>
     </row>
     <row r="22" spans="1:3" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A22" s="83" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="B22" s="82" t="s">
+      <c r="C22" s="82" t="s">
         <v>526</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="83" t="s">
+        <v>527</v>
+      </c>
+      <c r="B23" s="82" t="s">
         <v>528</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="C23" s="82" t="s">
         <v>529</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="83" t="s">
+        <v>530</v>
+      </c>
+      <c r="B24" s="82" t="s">
         <v>531</v>
       </c>
-      <c r="B24" s="82" t="s">
-        <v>532</v>
-      </c>
       <c r="C24" s="80" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="79" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="C25" s="82" t="s">
         <v>534</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="79" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B26" s="80" t="s">
         <v>143</v>
@@ -5808,84 +5845,84 @@
     </row>
     <row r="27" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="79" t="s">
+        <v>536</v>
+      </c>
+      <c r="B27" s="82" t="s">
         <v>537</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="C27" s="82" t="s">
         <v>538</v>
-      </c>
-      <c r="C27" s="82" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="84" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B28" s="82" t="s">
         <v>143</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="84" t="s">
+        <v>540</v>
+      </c>
+      <c r="B29" s="82" t="s">
         <v>541</v>
       </c>
-      <c r="B29" s="82" t="s">
-        <v>542</v>
-      </c>
       <c r="C29" s="82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="229.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="84" t="s">
+        <v>542</v>
+      </c>
+      <c r="B30" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="B30" s="82" t="s">
-        <v>544</v>
-      </c>
       <c r="C30" s="82" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="229.5" x14ac:dyDescent="0.2">
       <c r="A31" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" s="78" t="s">
         <v>545</v>
       </c>
-      <c r="B31" s="78" t="s">
-        <v>546</v>
-      </c>
       <c r="C31" s="78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="75" t="s">
+        <v>546</v>
+      </c>
+      <c r="B32" s="85" t="s">
         <v>547</v>
       </c>
-      <c r="B32" s="85" t="s">
-        <v>548</v>
-      </c>
       <c r="C32" s="85" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="75" t="s">
+        <v>548</v>
+      </c>
+      <c r="B33" s="86" t="s">
         <v>549</v>
       </c>
-      <c r="B33" s="86" t="s">
-        <v>550</v>
-      </c>
       <c r="C33" s="86" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" x14ac:dyDescent="0.2">
       <c r="A34" s="75" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B34" s="86">
         <v>1</v>
@@ -5896,139 +5933,139 @@
     </row>
     <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="75" t="s">
+        <v>551</v>
+      </c>
+      <c r="B35" s="87" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="87" t="s">
         <v>552</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>521</v>
-      </c>
-      <c r="C35" s="87" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B36" s="88" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C36" s="88" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="B37" s="90" t="s">
         <v>555</v>
       </c>
-      <c r="B37" s="90" t="s">
+      <c r="C37" s="89" t="s">
         <v>556</v>
-      </c>
-      <c r="C37" s="89" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="242.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="B39" s="91" t="s">
         <v>558</v>
       </c>
-      <c r="B39" s="91" t="s">
-        <v>559</v>
-      </c>
       <c r="C39" s="91" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C40" s="91" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="B41" s="91" t="s">
         <v>561</v>
       </c>
-      <c r="B41" s="91" t="s">
+      <c r="C41" s="91" t="s">
         <v>562</v>
-      </c>
-      <c r="C41" s="91" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="75" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B42" s="91" t="s">
+        <v>563</v>
+      </c>
+      <c r="C42" s="91" t="s">
         <v>564</v>
-      </c>
-      <c r="C42" s="91" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="B43" s="91" t="s">
         <v>566</v>
       </c>
-      <c r="B43" s="91" t="s">
+      <c r="C43" s="91" t="s">
         <v>567</v>
-      </c>
-      <c r="C43" s="91" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="B44" s="91" t="s">
         <v>569</v>
       </c>
-      <c r="B44" s="91" t="s">
-        <v>570</v>
-      </c>
       <c r="C44" s="91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="75" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" s="91" t="s">
         <v>571</v>
       </c>
-      <c r="B45" s="91" t="s">
-        <v>572</v>
-      </c>
       <c r="C45" s="91" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="B46" s="91" t="s">
         <v>573</v>
       </c>
-      <c r="B46" s="91" t="s">
-        <v>574</v>
-      </c>
       <c r="C46" s="91" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="75" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B47" s="92" t="s">
         <v>143</v>
@@ -6039,95 +6076,95 @@
     </row>
     <row r="48" spans="1:3" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="75" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B48" s="93" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="75" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B49" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C49" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="75" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B50" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C50" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="331.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="94" t="s">
+        <v>580</v>
+      </c>
+      <c r="B51" s="95" t="s">
         <v>581</v>
       </c>
-      <c r="B51" s="95" t="s">
-        <v>582</v>
-      </c>
       <c r="C51" s="95" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="79" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B52" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C52" s="92" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" s="93" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C53" s="93" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="79" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" s="93" t="s">
         <v>584</v>
       </c>
-      <c r="B54" s="93" t="s">
-        <v>585</v>
-      </c>
       <c r="C54" s="93" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="96" t="s">
+        <v>585</v>
+      </c>
+      <c r="B55" s="93" t="s">
         <v>586</v>
       </c>
-      <c r="B55" s="93" t="s">
-        <v>587</v>
-      </c>
       <c r="C55" s="93" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B56" s="93" t="s">
         <v>143</v>
@@ -6138,25 +6175,25 @@
     </row>
     <row r="57" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="84" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B57" s="93"/>
       <c r="C57" s="93"/>
     </row>
     <row r="58" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="84" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B58" s="93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C58" s="93" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="84" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B59" s="97" t="s">
         <v>143</v>
@@ -6167,14 +6204,14 @@
     </row>
     <row r="60" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="84" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B60" s="97"/>
       <c r="C60" s="97"/>
     </row>
     <row r="61" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="84" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B61" s="97" t="s">
         <v>143</v>
@@ -6185,127 +6222,127 @@
     </row>
     <row r="62" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="84" t="s">
+        <v>593</v>
+      </c>
+      <c r="B62" s="98" t="s">
         <v>594</v>
       </c>
-      <c r="B62" s="98" t="s">
-        <v>595</v>
-      </c>
       <c r="C62" s="98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="99" t="s">
+        <v>595</v>
+      </c>
+      <c r="B63" s="100" t="s">
         <v>596</v>
       </c>
-      <c r="B63" s="100" t="s">
-        <v>597</v>
-      </c>
       <c r="C63" s="100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="99" t="s">
+        <v>597</v>
+      </c>
+      <c r="B64" s="100" t="s">
         <v>598</v>
       </c>
-      <c r="B64" s="100" t="s">
-        <v>599</v>
-      </c>
       <c r="C64" s="100" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="99" t="s">
+        <v>599</v>
+      </c>
+      <c r="B65" s="101" t="s">
         <v>600</v>
       </c>
-      <c r="B65" s="101" t="s">
-        <v>601</v>
-      </c>
       <c r="C65" s="101" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="99" t="s">
+        <v>601</v>
+      </c>
+      <c r="B66" s="100" t="s">
         <v>602</v>
       </c>
-      <c r="B66" s="100" t="s">
-        <v>603</v>
-      </c>
       <c r="C66" s="100" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="99" t="s">
+        <v>603</v>
+      </c>
+      <c r="B67" s="100" t="s">
         <v>604</v>
       </c>
-      <c r="B67" s="100" t="s">
-        <v>605</v>
-      </c>
       <c r="C67" s="100" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="99" t="s">
+        <v>605</v>
+      </c>
+      <c r="B68" s="100" t="s">
         <v>606</v>
       </c>
-      <c r="B68" s="100" t="s">
-        <v>607</v>
-      </c>
       <c r="C68" s="100" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B69" s="100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C69" s="100" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="99" t="s">
+        <v>608</v>
+      </c>
+      <c r="B70" s="101" t="s">
         <v>609</v>
       </c>
-      <c r="B70" s="101" t="s">
-        <v>610</v>
-      </c>
       <c r="C70" s="101" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" s="99" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B71" s="93" t="s">
+        <v>610</v>
+      </c>
+      <c r="C71" s="93" t="s">
         <v>611</v>
-      </c>
-      <c r="C71" s="93" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A72" s="99" t="s">
+        <v>612</v>
+      </c>
+      <c r="B72" s="93" t="s">
         <v>613</v>
       </c>
-      <c r="B72" s="93" t="s">
-        <v>614</v>
-      </c>
       <c r="C72" s="93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6331,16 +6368,16 @@
         <v>5</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" s="104" t="s">
         <v>615</v>
       </c>
-      <c r="D1" s="104" t="s">
+      <c r="E1" s="104" t="s">
         <v>616</v>
-      </c>
-      <c r="E1" s="104" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6351,10 +6388,10 @@
         <v>18</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E2" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6365,41 +6402,41 @@
         <v>23</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D3" s="106" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E3" s="107" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B5" s="108" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E5" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6410,10 +6447,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E6" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6424,10 +6461,10 @@
         <v>57</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E7" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6438,10 +6475,10 @@
         <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E8" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -6452,144 +6489,144 @@
         <v>70</v>
       </c>
       <c r="C9" s="111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D9" s="112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E9" s="112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E10" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E11" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E12" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>328</v>
-      </c>
       <c r="C13" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E13" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E14" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B15" s="108" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E15" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E16" s="105" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="108" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="108" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B18" s="108" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C18" s="109" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E18" s="112" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6612,13 +6649,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B1" s="121" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1" s="121" t="s">
         <v>665</v>
       </c>
-      <c r="C1" s="121" t="s">
-        <v>666</v>
-      </c>
       <c r="D1" s="121" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -6626,13 +6663,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" s="122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.15">
@@ -6640,45 +6677,45 @@
         <v>119</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="123" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="121" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C4" s="120" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="121" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B5" s="121" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C5" s="120" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D5" s="121" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6687,7 +6724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection sqref="A1:H98"/>
     </sheetView>
   </sheetViews>
@@ -6701,589 +6738,589 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>376</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>377</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="G1" s="46" t="s">
-        <v>379</v>
-      </c>
       <c r="H1" s="114" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>383</v>
-      </c>
       <c r="E2" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C3" s="46" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="46"/>
       <c r="G3" s="46"/>
       <c r="H3" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C4" s="46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="46"/>
       <c r="G4" s="46"/>
       <c r="H4" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C5" s="46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H5" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C6" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="46"/>
       <c r="G6" s="46"/>
       <c r="H6" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C7" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H7" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B8" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C8" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
       <c r="H8" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C9" s="46" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
       <c r="H9" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>381</v>
-      </c>
       <c r="C10" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E10" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" s="46"/>
       <c r="G10" s="46"/>
       <c r="H10" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>394</v>
-      </c>
       <c r="D11" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E11" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="46"/>
       <c r="G12" s="46"/>
       <c r="H12" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" s="46" t="s">
         <v>116</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>396</v>
-      </c>
       <c r="D14" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="46"/>
       <c r="H14" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="46" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C15" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="B15" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>398</v>
-      </c>
       <c r="D15" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E15" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
       <c r="H15" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="46" t="s">
+        <v>398</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C16" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>400</v>
-      </c>
       <c r="D16" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E16" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
       <c r="H16" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>113</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="46"/>
       <c r="H17" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>381</v>
-      </c>
       <c r="C18" s="20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H18" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="46" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C19" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="B19" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>405</v>
-      </c>
       <c r="D19" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="46"/>
       <c r="H19" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C20" s="46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E20" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
       <c r="H20" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="46" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E21" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="46"/>
       <c r="H21" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C22" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="B22" s="46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>409</v>
-      </c>
       <c r="D22" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="46"/>
       <c r="H22" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B23" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C23" s="48" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="48" t="s">
         <v>410</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>411</v>
       </c>
       <c r="F23" s="48"/>
       <c r="G23" s="46"/>
       <c r="H23" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F24" s="48"/>
       <c r="G24" s="46"/>
       <c r="H24" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="48" t="s">
+        <v>412</v>
+      </c>
+      <c r="D25" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D25" s="48" t="s">
-        <v>414</v>
-      </c>
       <c r="E25" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F25" s="48"/>
       <c r="G25" s="46"/>
       <c r="H25" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B26" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="C26" s="48" t="s">
         <v>118</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F26" s="48"/>
       <c r="G26" s="46"/>
       <c r="H26" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>102</v>
@@ -7292,66 +7329,66 @@
         <v>114</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E27" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="46"/>
       <c r="H27" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>102</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D28" s="48" t="s">
+        <v>413</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>414</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>415</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="46"/>
       <c r="H28" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>101</v>
       </c>
       <c r="C29" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>414</v>
+      </c>
+      <c r="F29" s="49" t="s">
         <v>417</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>418</v>
       </c>
       <c r="G29" s="46"/>
       <c r="H29" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>101</v>
@@ -7360,143 +7397,143 @@
         <v>104</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E30" s="48" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="D31" s="20" t="s">
-        <v>420</v>
-      </c>
       <c r="E31" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F31" s="50"/>
       <c r="G31" s="20"/>
       <c r="H31" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="20"/>
       <c r="H32" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B33" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C33" s="48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E33" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="46"/>
       <c r="H33" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B34" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C34" s="48" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E34" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="46"/>
       <c r="H34" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B35" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B35" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C35" s="48" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="48" t="s">
         <v>423</v>
-      </c>
-      <c r="D35" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>424</v>
       </c>
       <c r="F35" s="48"/>
       <c r="G35" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H35" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B36" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C36" s="48" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>169</v>
@@ -7504,21 +7541,21 @@
       <c r="F36" s="48"/>
       <c r="G36" s="46"/>
       <c r="H36" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B37" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C37" s="48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E37" s="48" t="s">
         <v>69</v>
@@ -7526,21 +7563,21 @@
       <c r="F37" s="48"/>
       <c r="G37" s="46"/>
       <c r="H37" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C38" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>427</v>
-      </c>
-      <c r="D38" s="48" t="s">
-        <v>428</v>
       </c>
       <c r="E38" s="48" t="s">
         <v>164</v>
@@ -7548,417 +7585,417 @@
       <c r="F38" s="48"/>
       <c r="G38" s="46"/>
       <c r="H38" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>380</v>
+      </c>
+      <c r="C39" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="C39" s="46" t="s">
+      <c r="D39" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="E39" s="51" t="s">
         <v>430</v>
-      </c>
-      <c r="D39" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>431</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="46"/>
       <c r="H39" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="B40" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="C40" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E40" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F40" s="48"/>
       <c r="G40" s="46"/>
       <c r="H40" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B41" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>110</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E41" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="46"/>
       <c r="H41" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B42" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="B42" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="C42" s="46" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F42" s="48"/>
       <c r="G42" s="46"/>
       <c r="H42" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B43" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="B43" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="C43" s="46" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E43" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F43" s="48"/>
       <c r="G43" s="46"/>
       <c r="H43" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B44" s="48" t="s">
         <v>380</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>381</v>
       </c>
       <c r="C44" s="46" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E44" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="46"/>
       <c r="H44" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" s="48" t="s">
         <v>380</v>
       </c>
-      <c r="B45" s="48" t="s">
-        <v>381</v>
-      </c>
       <c r="C45" s="46" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E45" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="46"/>
       <c r="H45" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B46" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>435</v>
-      </c>
       <c r="D46" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C51" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E51" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B52" s="20" t="s">
         <v>380</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>381</v>
       </c>
       <c r="C52" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B53" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B53" s="20" t="s">
-        <v>381</v>
-      </c>
       <c r="C53" s="20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>381</v>
-      </c>
       <c r="C54" s="20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="B57" s="20" t="s">
-        <v>381</v>
-      </c>
       <c r="C57" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E57" s="20" t="s">
         <v>169</v>
@@ -7966,21 +8003,21 @@
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>445</v>
-      </c>
       <c r="D58" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E58" s="20" t="s">
         <v>169</v>
@@ -7988,21 +8025,21 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="18" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E59" s="20" t="s">
         <v>169</v>
@@ -8010,21 +8047,21 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="B60" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>448</v>
-      </c>
       <c r="D60" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E60" s="20" t="s">
         <v>169</v>
@@ -8032,21 +8069,21 @@
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>169</v>
@@ -8054,751 +8091,751 @@
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="114" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>627</v>
+      </c>
+      <c r="B62" t="s">
         <v>628</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>629</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>630</v>
-      </c>
-      <c r="D62" t="s">
-        <v>631</v>
       </c>
       <c r="E62" t="s">
         <v>46</v>
       </c>
       <c r="H62" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
+        <v>627</v>
+      </c>
+      <c r="B63" t="s">
         <v>628</v>
       </c>
-      <c r="B63" t="s">
-        <v>629</v>
-      </c>
       <c r="C63" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D63" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
       </c>
       <c r="H63" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
+        <v>632</v>
+      </c>
+      <c r="B64" t="s">
+        <v>628</v>
+      </c>
+      <c r="C64" t="s">
         <v>633</v>
       </c>
-      <c r="B64" t="s">
-        <v>629</v>
-      </c>
-      <c r="C64" t="s">
-        <v>634</v>
-      </c>
       <c r="D64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
       </c>
       <c r="H64" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
+        <v>627</v>
+      </c>
+      <c r="B65" t="s">
         <v>628</v>
       </c>
-      <c r="B65" t="s">
-        <v>629</v>
-      </c>
       <c r="C65" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D65" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
       </c>
       <c r="H65" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
+        <v>627</v>
+      </c>
+      <c r="B66" t="s">
         <v>628</v>
       </c>
-      <c r="B66" t="s">
-        <v>629</v>
-      </c>
       <c r="C66" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
       </c>
       <c r="H66" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B67" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C67" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D67" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H67" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B68" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C68" t="s">
         <v>108</v>
       </c>
       <c r="D68" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H68" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
+        <v>627</v>
+      </c>
+      <c r="B69" t="s">
         <v>628</v>
       </c>
-      <c r="B69" t="s">
-        <v>629</v>
-      </c>
       <c r="C69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D69" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H69" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>637</v>
+      </c>
+      <c r="B70" t="s">
+        <v>628</v>
+      </c>
+      <c r="C70" t="s">
         <v>638</v>
       </c>
-      <c r="B70" t="s">
-        <v>629</v>
-      </c>
-      <c r="C70" t="s">
-        <v>639</v>
-      </c>
       <c r="D70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="H70" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B71" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C71" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D71" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="H71" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>627</v>
+      </c>
+      <c r="B72" t="s">
         <v>628</v>
       </c>
-      <c r="B72" t="s">
-        <v>629</v>
-      </c>
       <c r="C72" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D72" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="H72" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
+        <v>627</v>
+      </c>
+      <c r="B73" t="s">
         <v>628</v>
       </c>
-      <c r="B73" t="s">
-        <v>629</v>
-      </c>
       <c r="C73" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D73" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="H73" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>627</v>
+      </c>
+      <c r="B74" t="s">
         <v>628</v>
       </c>
-      <c r="B74" t="s">
-        <v>629</v>
-      </c>
       <c r="C74" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D74" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>627</v>
+      </c>
+      <c r="B75" t="s">
         <v>628</v>
       </c>
-      <c r="B75" t="s">
-        <v>629</v>
-      </c>
       <c r="C75" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D75" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
       </c>
       <c r="H75" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B76" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C76" t="s">
         <v>109</v>
       </c>
       <c r="D76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
       </c>
       <c r="H76" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B77" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C77" t="s">
         <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
       </c>
       <c r="H77" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B78" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D78" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
       </c>
       <c r="H78" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B79" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C79" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D79" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E79" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H79" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B80" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C80" t="s">
         <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="H80" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B81" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C81" t="s">
         <v>112</v>
       </c>
       <c r="D81" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
       </c>
       <c r="H81" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B82" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C82" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D82" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E82" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>627</v>
+      </c>
+      <c r="B83" t="s">
         <v>628</v>
       </c>
-      <c r="B83" t="s">
-        <v>629</v>
-      </c>
       <c r="C83" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E83" t="s">
         <v>46</v>
       </c>
       <c r="H83" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>627</v>
+      </c>
+      <c r="B84" t="s">
         <v>628</v>
       </c>
-      <c r="B84" t="s">
-        <v>629</v>
-      </c>
       <c r="C84" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D84" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E84" t="s">
         <v>46</v>
       </c>
       <c r="H84" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B85" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C85" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D85" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E85" t="s">
         <v>46</v>
       </c>
       <c r="H85" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B86" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D86" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E86" t="s">
         <v>46</v>
       </c>
       <c r="H86" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>627</v>
+      </c>
+      <c r="B87" t="s">
         <v>628</v>
-      </c>
-      <c r="B87" t="s">
-        <v>629</v>
       </c>
       <c r="C87" t="s">
         <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E87" t="s">
         <v>17</v>
       </c>
       <c r="H87" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C88" t="s">
         <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E88" t="s">
         <v>51</v>
       </c>
       <c r="H88" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B89" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C89" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D89" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E89" t="s">
         <v>22</v>
       </c>
       <c r="H89" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B90" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C90" t="s">
         <v>115</v>
       </c>
       <c r="D90" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E90" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H90" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B91" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C91" t="s">
         <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E91" t="s">
         <v>17</v>
       </c>
       <c r="H91" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B92" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C92" t="s">
         <v>117</v>
       </c>
       <c r="D92" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
       </c>
       <c r="H92" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B93" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C93" t="s">
         <v>118</v>
       </c>
       <c r="D93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E93" t="s">
         <v>51</v>
       </c>
       <c r="H93" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B94" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C94" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E94" t="s">
         <v>56</v>
       </c>
       <c r="H94" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B95" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C95" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D95" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E95" t="s">
         <v>17</v>
       </c>
       <c r="H95" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B96" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C96" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D96" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E96" t="s">
         <v>17</v>
       </c>
       <c r="H96" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B97" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C97" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D97" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E97" t="s">
         <v>17</v>
       </c>
       <c r="H97" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B98" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C98" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D98" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E98" t="s">
         <v>17</v>
       </c>
       <c r="H98" s="114" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8807,7 +8844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -8843,10 +8880,10 @@
         <v>124</v>
       </c>
       <c r="H1" s="52" t="s">
+        <v>449</v>
+      </c>
+      <c r="I1" s="53" t="s">
         <v>450</v>
-      </c>
-      <c r="I1" s="53" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -8863,7 +8900,7 @@
         <v>128</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>129</v>
@@ -8872,27 +8909,27 @@
         <v>130</v>
       </c>
       <c r="H2" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="I2" s="55" t="s">
         <v>452</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>129</v>
@@ -8901,27 +8938,27 @@
         <v>130</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I3" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>129</v>
@@ -8930,27 +8967,27 @@
         <v>130</v>
       </c>
       <c r="H4" s="56" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I4" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>133</v>
@@ -8959,10 +8996,10 @@
         <v>134</v>
       </c>
       <c r="H5" s="56" t="s">
+        <v>451</v>
+      </c>
+      <c r="I5" s="55" t="s">
         <v>452</v>
-      </c>
-      <c r="I5" s="55" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -8973,13 +9010,13 @@
         <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>133</v>
@@ -8989,24 +9026,24 @@
       </c>
       <c r="H6" s="56"/>
       <c r="I6" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>133</v>
@@ -9015,18 +9052,18 @@
         <v>130</v>
       </c>
       <c r="H7" s="54" t="s">
+        <v>451</v>
+      </c>
+      <c r="I7" s="55" t="s">
         <v>452</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>138</v>
@@ -9038,16 +9075,16 @@
         <v>139</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I8" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9058,7 +9095,7 @@
         <v>141</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>132</v>
@@ -9070,13 +9107,13 @@
         <v>143</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H9" s="56" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I9" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9093,7 +9130,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>106</v>
@@ -9102,10 +9139,10 @@
         <v>130</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I10" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9122,81 +9159,81 @@
         <v>132</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H11" s="58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I11" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>130</v>
       </c>
       <c r="H12" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I12" s="59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>130</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I13" s="60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="G7" r:id="rId2"/>
@@ -9214,10 +9251,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9264,7 +9301,7 @@
         <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>153</v>
@@ -9333,7 +9370,7 @@
         <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>153</v>
@@ -9444,7 +9481,7 @@
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>153</v>
@@ -9478,26 +9515,49 @@
         <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>172</v>
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="G12" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="G13" t="s">
+        <v>688</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9523,28 +9583,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>297</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9555,48 +9615,48 @@
         <v>17</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="G2" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H2" s="45" t="s">
         <v>299</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="E3" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>190</v>
-      </c>
       <c r="G3" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H3" s="45" t="s">
         <v>299</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9607,22 +9667,22 @@
         <v>17</v>
       </c>
       <c r="C4" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="E4" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>192</v>
-      </c>
       <c r="G4" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H4" s="45" t="s">
         <v>299</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9633,52 +9693,52 @@
         <v>17</v>
       </c>
       <c r="C5" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="E5" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>194</v>
-      </c>
       <c r="G5" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="45" t="s">
         <v>299</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>185</v>
-      </c>
       <c r="E6" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F6" s="20" t="s">
-        <v>197</v>
-      </c>
       <c r="G6" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>300</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="E1:F1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -9731,28 +9791,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9763,7 +9823,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="27">
         <v>3</v>
@@ -9775,10 +9835,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9789,7 +9849,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="27">
         <v>3</v>
@@ -9801,10 +9861,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -9815,7 +9875,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D4" s="27">
         <v>3</v>
@@ -9827,14 +9887,14 @@
         <v>0</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="systemDetails::storagesystem=FNM00124100004" display="https://portal.usd.lab.emc.com/services/equipment_management - systemDetails::storagesystem=FNM00124100004"/>
     <hyperlink ref="B3" r:id="rId2" location="systemDetails::storagesystem=FNM00124400703" display="https://portal.usd.lab.emc.com/services/equipment_management - systemDetails::storagesystem=FNM00124400703"/>
@@ -9862,7 +9922,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>0</v>
@@ -9876,97 +9936,97 @@
     </row>
     <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>668</v>
+      </c>
+      <c r="D2" s="124" t="s">
         <v>676</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>669</v>
-      </c>
-      <c r="D2" s="124" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>239</v>
-      </c>
       <c r="C3" s="33" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="124" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="32" t="s">
         <v>241</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>242</v>
       </c>
       <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>244</v>
-      </c>
       <c r="C5" s="118" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D5" s="124" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="31" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>249</v>
       </c>
       <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="C8" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>252</v>
       </c>
       <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -9974,7 +10034,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="31" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -9982,30 +10042,30 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B11" s="32"/>
       <c r="C11" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>258</v>
-      </c>
       <c r="D12" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10029,10 +10089,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
         <v>146</v>
@@ -10041,15 +10101,15 @@
         <v>121</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
         <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>261</v>
       </c>
       <c r="C2" s="39" t="s">
         <v>127</v>
@@ -10060,13 +10120,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3" t="s">
         <v>262</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>263</v>
-      </c>
-      <c r="C3" t="s">
-        <v>264</v>
       </c>
       <c r="D3" t="s">
         <v>132</v>
@@ -10074,66 +10134,66 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="C5" t="s">
         <v>268</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
         <v>270</v>
-      </c>
-      <c r="B6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
         <v>272</v>
-      </c>
-      <c r="B7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
         <v>274</v>
-      </c>
-      <c r="B8" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
         <v>276</v>
       </c>
-      <c r="B9" t="s">
-        <v>277</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
@@ -10162,16 +10222,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>279</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10179,13 +10239,13 @@
         <v>32</v>
       </c>
       <c r="B2" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="115" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="D2" s="42" t="s">
         <v>282</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10196,7 +10256,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="116" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D3" s="115" t="s">
         <v>143</v>
@@ -10210,7 +10270,7 @@
         <v>46</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D4" s="116" t="s">
         <v>143</v>
@@ -10221,11 +10281,11 @@
         <v>24</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="117"/>
       <c r="D5" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10233,7 +10293,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
@@ -10245,7 +10305,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43" t="s">
@@ -10260,10 +10320,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10271,11 +10331,11 @@
         <v>36</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10287,7 +10347,7 @@
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10295,7 +10355,7 @@
         <v>47</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
@@ -10307,11 +10367,11 @@
         <v>52</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="43"/>
       <c r="D12" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10322,7 +10382,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D13" s="43" t="s">
         <v>143</v>
@@ -10333,11 +10393,11 @@
         <v>61</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10345,11 +10405,11 @@
         <v>65</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
@@ -10357,15 +10417,15 @@
         <v>70</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" s="43"/>
       <c r="D16" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>